--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274437.866411127</v>
+        <v>278130.5562328064</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763806</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>372.2698922909595</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>6.338580986754886</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -750,7 +752,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588048</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868341</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>42.43741174507633</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -877,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>193.5927947728079</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +898,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>100.0791888769551</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6595091345609</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>113.9006521853674</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>307.076502194043</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>157.7484451748616</v>
       </c>
       <c r="U9" t="n">
         <v>195.3773027531635</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>46.09470047395124</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6594333092506167</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1451,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385435</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1500,7 +1502,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
-        <v>157.748445174862</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
         <v>195.3773027531635</v>
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>329.7323901280499</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.816547588503062</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1704,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>96.07643038288631</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1856,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>386.8650699901663</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>78.95591231843086</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.3275768541984</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2059,13 +2061,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2081,22 +2083,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>388.2474135039329</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>129.232574668155</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507687</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>393.9470907639073</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2327,10 +2329,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.338580986754886</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>69.56032144960771</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>219.0202303825988</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2561,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.2398756097325</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>90.98315041848379</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>84.50532171668905</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>181.29866847441</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>96.74669532747926</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105131</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3031,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>183.8493777982075</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>21.59422265463095</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3244,16 +3246,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>76.86045170390376</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.69551283691968</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>192.0241042587364</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>399.0441766499195</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3357,7 +3359,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588044</v>
       </c>
       <c r="H36" t="n">
         <v>70.03974083464111</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>181.8228437668585</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>179.3516738417454</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
         <v>157.7484451748619</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.15178925005567</v>
+        <v>159.3854280103017</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3667,19 +3669,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>111.3697406168296</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
         <v>157.7484451748619</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>33.72356368083187</v>
       </c>
       <c r="C43" t="n">
-        <v>155.8814660853018</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3955,7 +3957,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>113.9976787127415</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>226.529571869212</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4119,7 +4121,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424963</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>127.8710203300643</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.693821706375</v>
+        <v>417.7952798628945</v>
       </c>
       <c r="C2" t="n">
-        <v>860.5692310196448</v>
+        <v>417.7952798628945</v>
       </c>
       <c r="D2" t="n">
-        <v>456.1053011127053</v>
+        <v>417.7952798628945</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>417.7952798628945</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>417.7952798628945</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>733.4074053521598</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610683</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X2" t="n">
-        <v>2081.851674422774</v>
+        <v>818.7319529148044</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.915001370864</v>
+        <v>417.7952798628945</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="M3" t="n">
-        <v>1724.070068790184</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.070068790184</v>
+        <v>675.164428100838</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.7185867198193</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="C4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W4" t="n">
-        <v>307.7185867198193</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X4" t="n">
-        <v>307.7185867198193</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y4" t="n">
-        <v>307.7185867198193</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.908511128883</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.908511128883</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E5" t="n">
-        <v>853.5682956457795</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F5" t="n">
-        <v>432.537883599467</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1075.450954962253</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4598,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1987.1641917054</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1637.32663704188</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1253.566336177049</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>852.9229383460014</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>451.9862652940915</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L6" t="n">
-        <v>537.7254774811266</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M6" t="n">
-        <v>537.7254774811266</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147452</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4677,19 +4679,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>967.2728604114279</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>784.7885077502552</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.0528091390199</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>876.4530309326553</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C8" t="n">
-        <v>876.4530309326553</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D8" t="n">
-        <v>876.4530309326553</v>
+        <v>1273.665760886433</v>
       </c>
       <c r="E8" t="n">
-        <v>876.4530309326553</v>
+        <v>859.3255454033292</v>
       </c>
       <c r="F8" t="n">
-        <v>761.4018671090519</v>
+        <v>438.2951333570168</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4844,10 +4846,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.674210597145</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="L9" t="n">
-        <v>1192.007362767164</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="M9" t="n">
-        <v>1708.850297433489</v>
+        <v>675.164428100838</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.850297433489</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>856.3536062232714</v>
+      </c>
+      <c r="C11" t="n">
+        <v>446.2290155365415</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="E11" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="F11" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="G11" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="H11" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="I11" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="J11" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="K11" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="L11" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="M11" t="n">
+        <v>558.6080202959272</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1075.450954962252</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1592.293889628578</v>
+      </c>
+      <c r="P11" t="n">
         <v>2088.254281480102</v>
       </c>
-      <c r="C11" t="n">
-        <v>2087.588187228334</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1683.124257321394</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1268.784041838291</v>
-      </c>
-      <c r="F11" t="n">
-        <v>847.7536297919787</v>
-      </c>
-      <c r="G11" t="n">
-        <v>439.0253456848109</v>
-      </c>
-      <c r="H11" t="n">
-        <v>128.1168483125289</v>
-      </c>
-      <c r="I11" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="J11" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="K11" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="L11" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="M11" t="n">
-        <v>558.6080202959273</v>
-      </c>
-      <c r="N11" t="n">
-        <v>692.8507596625949</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1209.69369432892</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1726.536628995245</v>
-      </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5078,13 +5080,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>902.9139097323131</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C12" t="n">
         <v>586.6008562650821</v>
@@ -5112,10 +5114,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
         <v>234.5779431922353</v>
@@ -5124,22 +5126,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>1025.008892784822</v>
+        <v>704.723947463468</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.008892784822</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N12" t="n">
-        <v>1025.008892784822</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O12" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5151,7 +5153,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V12" t="n">
         <v>1409.860069912671</v>
@@ -5163,7 +5165,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="13">
@@ -5188,19 +5190,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H13" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1679.422105813543</v>
+        <v>1286.674210597144</v>
       </c>
       <c r="C14" t="n">
-        <v>1269.297515126813</v>
+        <v>953.6111902657808</v>
       </c>
       <c r="D14" t="n">
-        <v>864.8335852198732</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E14" t="n">
-        <v>450.4933697367699</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L14" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="M14" t="n">
         <v>1209.69369432892</v>
@@ -5309,19 +5311,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>2080.358778865453</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>2080.358778865453</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>2080.358778865453</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>2080.358778865453</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y14" t="n">
-        <v>1679.422105813543</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O15" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
         <v>2058.694762117472</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>843.6595175967811</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>684.1648729196911</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880106</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1695.988587952916</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C17" t="n">
-        <v>1285.863997266186</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>853.5682956457795</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>432.537883599467</v>
       </c>
       <c r="G17" t="n">
         <v>41.76508562960205</v>
@@ -5522,19 +5524,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N17" t="n">
-        <v>1014.011766457887</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O17" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5571,7 +5573,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D18" t="n">
         <v>469.7036984844747</v>
@@ -5583,37 +5585,37 @@
         <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.5136770093618</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>751.4208778585605</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M18" t="n">
-        <v>751.4208778585605</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N18" t="n">
-        <v>1192.007362767164</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O18" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5631,7 +5633,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>271.1259876104392</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C19" t="n">
-        <v>271.1259876104392</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>271.1259876104392</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>271.1259876104392</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>271.1259876104392</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>271.1259876104392</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5185324158959</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
         <v>41.76508562960205</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1385.984611690656</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1146.435872667358</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X19" t="n">
-        <v>495.8616862216745</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y19" t="n">
-        <v>271.1259876104392</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.033101815613</v>
+        <v>762.7981736886139</v>
       </c>
       <c r="C20" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
         <v>41.76508562960205</v>
@@ -5750,25 +5752,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L20" t="n">
-        <v>692.8507596625949</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M20" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N20" t="n">
-        <v>1726.536628995245</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O20" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P20" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
         <v>2047.697635790537</v>
@@ -5786,16 +5788,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1957.716327269845</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1573.956026405013</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>1573.956026405013</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>1173.019353353103</v>
       </c>
     </row>
     <row r="21">
@@ -5808,7 +5810,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D21" t="n">
         <v>469.7036984844747</v>
@@ -5820,37 +5822,37 @@
         <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936203</v>
+        <v>62.5136770093618</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K21" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L21" t="n">
-        <v>497.5713418949007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.414276561226</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N21" t="n">
-        <v>1025.008892784822</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O21" t="n">
-        <v>1541.851827451147</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P21" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5868,7 +5870,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>601.7214573290265</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L22" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M22" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O22" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P22" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.163982250452</v>
+        <v>1531.570388965748</v>
       </c>
       <c r="W22" t="n">
-        <v>1571.163982250452</v>
+        <v>1252.500724474623</v>
       </c>
       <c r="X22" t="n">
-        <v>1543.534340936018</v>
+        <v>1014.156862334306</v>
       </c>
       <c r="Y22" t="n">
-        <v>1318.798642324783</v>
+        <v>789.4211637230709</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1690.327927173125</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C23" t="n">
-        <v>1690.327927173125</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G23" t="n">
         <v>41.76508562960205</v>
@@ -5993,16 +5995,16 @@
         <v>558.6080202959273</v>
       </c>
       <c r="L23" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M23" t="n">
-        <v>1592.293889628578</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N23" t="n">
-        <v>2047.697635790537</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O23" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P23" t="n">
         <v>2047.697635790537</v>
@@ -6020,19 +6022,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="24">
@@ -6072,16 +6074,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L24" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M24" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P24" t="n">
         <v>2088.254281480102</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>367.3070266506913</v>
+        <v>920.3847151048558</v>
       </c>
       <c r="C25" t="n">
-        <v>367.3070266506913</v>
+        <v>749.2913426665723</v>
       </c>
       <c r="D25" t="n">
-        <v>367.3070266506913</v>
+        <v>589.7966979894823</v>
       </c>
       <c r="E25" t="n">
-        <v>206.3962115190108</v>
+        <v>428.8858828578017</v>
       </c>
       <c r="F25" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G25" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H25" t="n">
         <v>41.76508562960205</v>
@@ -6172,25 +6174,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U25" t="n">
-        <v>862.4253276531883</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V25" t="n">
-        <v>588.5395825927103</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W25" t="n">
-        <v>367.3070266506913</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X25" t="n">
-        <v>367.3070266506913</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y25" t="n">
-        <v>367.3070266506913</v>
+        <v>1108.0844214989</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>451.8896763163319</v>
+        <v>1286.674210597145</v>
       </c>
       <c r="C26" t="n">
-        <v>41.76508562960205</v>
+        <v>876.5496199104149</v>
       </c>
       <c r="D26" t="n">
-        <v>41.76508562960205</v>
+        <v>876.5496199104149</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960205</v>
+        <v>462.2094044273116</v>
       </c>
       <c r="F26" t="n">
         <v>41.76508562960205</v>
@@ -6224,25 +6226,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K26" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L26" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M26" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N26" t="n">
-        <v>2047.697635790537</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O26" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6257,19 +6259,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U26" t="n">
-        <v>1996.35210934022</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V26" t="n">
-        <v>1646.5145546767</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W26" t="n">
-        <v>1262.754253811869</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X26" t="n">
-        <v>862.1108559808214</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y26" t="n">
-        <v>862.1108559808214</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="27">
@@ -6282,7 +6284,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D27" t="n">
         <v>469.7036984844747</v>
@@ -6294,34 +6296,34 @@
         <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.5136770093618</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L27" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N27" t="n">
-        <v>1541.851827451147</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O27" t="n">
-        <v>2058.694762117472</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P27" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q27" t="n">
         <v>2058.694762117472</v>
@@ -6342,7 +6344,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1131.098935930739</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="C28" t="n">
-        <v>960.0055634924552</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="H28" t="n">
         <v>158.1111315252759</v>
@@ -6406,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V28" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W28" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X28" t="n">
-        <v>1543.534340936018</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y28" t="n">
-        <v>1318.798642324783</v>
+        <v>224.1971997769844</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1171.526457795782</v>
+        <v>1269.297515126813</v>
       </c>
       <c r="C29" t="n">
-        <v>761.4018671090519</v>
+        <v>1269.297515126813</v>
       </c>
       <c r="D29" t="n">
-        <v>761.4018671090519</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="E29" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F29" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G29" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M29" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N29" t="n">
-        <v>1592.293889628578</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P29" t="n">
         <v>2088.254281480102</v>
@@ -6491,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>2002.895370655163</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>2002.895370655163</v>
       </c>
       <c r="V29" t="n">
-        <v>1738.416726816583</v>
+        <v>1653.057815991644</v>
       </c>
       <c r="W29" t="n">
-        <v>1354.656425951752</v>
+        <v>1269.297515126813</v>
       </c>
       <c r="X29" t="n">
-        <v>1171.526457795782</v>
+        <v>1269.297515126813</v>
       </c>
       <c r="Y29" t="n">
-        <v>1171.526457795782</v>
+        <v>1269.297515126813</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F30" t="n">
         <v>240.2510026593071</v>
@@ -6534,34 +6536,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L30" t="n">
-        <v>558.6080202959273</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M30" t="n">
-        <v>558.6080202959273</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N30" t="n">
-        <v>1054.568412147451</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="O30" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6585,7 +6587,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1574.819797396326</v>
+        <v>884.5196047829018</v>
       </c>
       <c r="C31" t="n">
-        <v>1477.095862722105</v>
+        <v>713.4262323446183</v>
       </c>
       <c r="D31" t="n">
-        <v>1317.601218045015</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E31" t="n">
-        <v>1156.690402913334</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F31" t="n">
-        <v>992.0592770239257</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G31" t="n">
-        <v>824.8088859494691</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H31" t="n">
-        <v>675.2014307549257</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J31" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M31" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P31" t="n">
         <v>2022.726251677591</v>
@@ -6649,22 +6651,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T31" t="n">
-        <v>1848.705542456804</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U31" t="n">
-        <v>1848.705542456804</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V31" t="n">
-        <v>1574.819797396326</v>
+        <v>1814.368536419624</v>
       </c>
       <c r="W31" t="n">
-        <v>1574.819797396326</v>
+        <v>1535.298871928498</v>
       </c>
       <c r="X31" t="n">
-        <v>1574.819797396326</v>
+        <v>1296.955009788182</v>
       </c>
       <c r="Y31" t="n">
-        <v>1574.819797396326</v>
+        <v>1072.219311176946</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>871.5237817830823</v>
+        <v>1542.752026609713</v>
       </c>
       <c r="C32" t="n">
-        <v>871.5237817830823</v>
+        <v>1132.627435922983</v>
       </c>
       <c r="D32" t="n">
-        <v>871.5237817830823</v>
+        <v>728.1635060160438</v>
       </c>
       <c r="E32" t="n">
-        <v>871.5237817830823</v>
+        <v>313.8232905329405</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L32" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M32" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N32" t="n">
-        <v>812.7934917636817</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O32" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P32" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6725,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2066.441935364313</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U32" t="n">
-        <v>2066.441935364313</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V32" t="n">
-        <v>2066.441935364313</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W32" t="n">
-        <v>1682.681634499482</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X32" t="n">
-        <v>1682.681634499482</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y32" t="n">
-        <v>1281.744961447572</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G33" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>704.7239474634683</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>704.7239474634683</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.566882129794</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="O33" t="n">
-        <v>1221.566882129794</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P33" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q33" t="n">
         <v>2088.254281480102</v>
@@ -6813,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.3500295363419</v>
+        <v>372.3531027449755</v>
       </c>
       <c r="C34" t="n">
-        <v>718.3500295363419</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T34" t="n">
-        <v>1848.705542456804</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U34" t="n">
-        <v>1565.907395002929</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V34" t="n">
-        <v>1292.02164994245</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W34" t="n">
-        <v>1012.951985451325</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="X34" t="n">
-        <v>774.6081233110083</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y34" t="n">
-        <v>718.3500295363419</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1678.033101815613</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C35" t="n">
-        <v>1267.908511128883</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D35" t="n">
-        <v>864.8335852198732</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E35" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P35" t="n">
         <v>2047.697635790537</v>
@@ -6968,19 +6970,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1046.790091043733</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>645.8534179918232</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G36" t="n">
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>508.1659581184966</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.008892784822</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N36" t="n">
-        <v>1025.008892784822</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O36" t="n">
-        <v>1541.851827451147</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P36" t="n">
         <v>2058.694762117472</v>
@@ -7047,7 +7049,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U36" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V36" t="n">
         <v>1409.860069912671</v>
@@ -7059,7 +7061,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C37" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D37" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E37" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F37" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G37" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7117,28 +7119,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S37" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V37" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W37" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X37" t="n">
-        <v>1543.534340936018</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y37" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>871.5237817830823</v>
+        <v>942.7053689061983</v>
       </c>
       <c r="C38" t="n">
-        <v>871.5237817830823</v>
+        <v>532.5807782194684</v>
       </c>
       <c r="D38" t="n">
-        <v>871.5237817830823</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="E38" t="n">
-        <v>871.5237817830823</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F38" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N38" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U38" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1682.388359278619</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W38" t="n">
-        <v>1682.388359278619</v>
+        <v>942.7053689061983</v>
       </c>
       <c r="X38" t="n">
-        <v>1281.744961447572</v>
+        <v>942.7053689061983</v>
       </c>
       <c r="Y38" t="n">
-        <v>1281.744961447572</v>
+        <v>942.7053689061983</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>508.1659581184966</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.008892784822</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N39" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>521.9605579395188</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C40" t="n">
-        <v>350.8671855012354</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D40" t="n">
-        <v>191.3725408241454</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E40" t="n">
-        <v>191.3725408241454</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F40" t="n">
-        <v>191.3725408241454</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G40" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V40" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W40" t="n">
-        <v>777.1526093285881</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X40" t="n">
-        <v>777.1526093285881</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="Y40" t="n">
-        <v>552.4169107173528</v>
+        <v>1292.094317759326</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>465.1682704936311</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C41" t="n">
-        <v>465.1682704936311</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="D41" t="n">
-        <v>465.1682704936311</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E41" t="n">
-        <v>465.1682704936311</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F41" t="n">
-        <v>352.673583001884</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L41" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M41" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N41" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="O41" t="n">
         <v>1209.69369432892</v>
@@ -7439,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>1259.149751022952</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>875.3894501581206</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X41" t="n">
-        <v>875.3894501581206</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y41" t="n">
-        <v>875.3894501581206</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L42" t="n">
-        <v>508.1659581184966</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.008892784822</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N42" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>315.5671578740656</v>
+        <v>1531.843189264714</v>
       </c>
       <c r="C43" t="n">
-        <v>158.1111315252759</v>
+        <v>1360.749816826431</v>
       </c>
       <c r="D43" t="n">
-        <v>158.1111315252759</v>
+        <v>1201.255172149341</v>
       </c>
       <c r="E43" t="n">
-        <v>158.1111315252759</v>
+        <v>1040.34435701766</v>
       </c>
       <c r="F43" t="n">
-        <v>158.1111315252759</v>
+        <v>875.7132311282514</v>
       </c>
       <c r="G43" t="n">
-        <v>158.1111315252759</v>
+        <v>708.4628400537948</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S43" t="n">
-        <v>1299.499495805762</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T43" t="n">
-        <v>1059.950756782464</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U43" t="n">
-        <v>777.1526093285881</v>
+        <v>1565.907395002928</v>
       </c>
       <c r="V43" t="n">
-        <v>503.2668642681101</v>
+        <v>1565.907395002928</v>
       </c>
       <c r="W43" t="n">
-        <v>503.2668642681101</v>
+        <v>1565.907395002928</v>
       </c>
       <c r="X43" t="n">
-        <v>503.2668642681101</v>
+        <v>1565.907395002928</v>
       </c>
       <c r="Y43" t="n">
-        <v>503.2668642681101</v>
+        <v>1565.907395002928</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>451.8896763163319</v>
+        <v>561.3781859534521</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960205</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M44" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N44" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O44" t="n">
         <v>1592.293889628578</v>
@@ -7673,25 +7675,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U44" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V44" t="n">
-        <v>1637.230048064121</v>
+        <v>1346.075159870193</v>
       </c>
       <c r="W44" t="n">
-        <v>1253.469747199289</v>
+        <v>962.314859005362</v>
       </c>
       <c r="X44" t="n">
-        <v>852.8263493682418</v>
+        <v>962.314859005362</v>
       </c>
       <c r="Y44" t="n">
-        <v>451.8896763163319</v>
+        <v>561.3781859534521</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F45" t="n">
         <v>240.2510026593071</v>
@@ -7719,34 +7721,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K45" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L45" t="n">
-        <v>1207.227134123859</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M45" t="n">
-        <v>1724.070068790184</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N45" t="n">
-        <v>2058.694762117472</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7761,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C46" t="n">
-        <v>843.6595175967814</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D46" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E46" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F46" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G46" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7837,19 +7839,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1331.615243227154</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1331.615243227154</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>1331.615243227154</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>1331.615243227154</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>1202.452596429109</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832875</v>
       </c>
       <c r="M2" t="n">
-        <v>535.1658287548267</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>173.5595280421011</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O3" t="n">
-        <v>72.2360729453882</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544003</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>594.6194560602019</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8298,25 +8300,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>557.0846165901669</v>
+        <v>527.2265162238735</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,25 +8458,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>594.2603172363629</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>173.5595280421011</v>
       </c>
       <c r="L9" t="n">
-        <v>562.8045877599699</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8696,22 +8698,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7129336509097</v>
+        <v>594.6194560602016</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,25 +8774,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>394.1192645454833</v>
+        <v>70.59911775623691</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>231.0841246958421</v>
       </c>
       <c r="M14" t="n">
-        <v>494.1995199774884</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
         <v>92.91229075661933</v>
@@ -8942,7 +8944,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>527.2265162238739</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428703</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9170,22 +9172,22 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>553.2940084590249</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>423.9773649117762</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>498.2302468367834</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>208.9223179663055</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9480,28 +9482,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>63.89502594283681</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,19 +9643,19 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
         <v>552.9160747585987</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
         <v>90.03380439915205</v>
@@ -9720,19 +9722,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637755</v>
+        <v>554.1634861730672</v>
       </c>
       <c r="O24" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>298.736180582244</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9957,7 +9959,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>527.2265162238739</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>579.627854108443</v>
@@ -9969,10 +9971,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>171.9933802602897</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10112,22 +10114,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421622</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>554.1634861730673</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>502.7883324430331</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>552.9160747585985</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10428,22 +10430,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>531.0094776201754</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>296.9001458002832</v>
       </c>
       <c r="Q35" t="n">
         <v>90.03380439915205</v>
@@ -10662,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>527.2265162238739</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>391.1981341283837</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10823,19 +10825,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>552.9160747585985</v>
       </c>
       <c r="O38" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
@@ -10844,7 +10846,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10904,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>332.4660540393959</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -10923,7 +10925,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L41" t="n">
         <v>95.48539806284482</v>
@@ -11069,13 +11071,13 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>493.8215862770623</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958087</v>
+        <v>494.0990711462258</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11142,16 +11144,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>527.2265162238739</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11160,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,16 +11305,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P44" t="n">
-        <v>553.6531472828635</v>
+        <v>553.6531472828633</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11373,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1981341283841</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>98.31121191537929</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -11397,7 +11399,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>32.37110897513656</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22604,13 +22606,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>390.2983828659821</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>126.9450269688243</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -22720,10 +22722,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>82.68617307340648</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22784,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>17.77593127592979</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22838,19 +22840,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>154.4106979461299</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -23002,10 +23004,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3009143843525</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>302.9194557404819</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>97.56449907205314</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>360.0242673938933</v>
       </c>
       <c r="C11" t="n">
-        <v>405.3639114706119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23497,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>76.29095465181268</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>246.6733392345819</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23558,7 +23560,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>126.4119112422366</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23905,10 +23907,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>36.22667311828624</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>1.200273584690478</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>17.77593127592968</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24026,16 +24028,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>217.1066044487291</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>126.9450269688238</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12.17187710393722</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24260,7 +24262,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>248.1513058363301</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24272,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>93.42449318090694</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24412,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>57.2587374636156</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,10 +24451,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0.5802323161168488</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24497,19 +24499,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>163.5067364046012</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>82.68617307340649</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24680,13 +24682,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24731,7 +24733,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>135.4790974959207</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>215.338295378327</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>72.6357433864214</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4.874559219805946</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>232.9707301276418</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>198.3901965579788</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -24977,13 +24979,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>159.0999718150097</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.7928287882033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>214.0948636091082</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.375113957950532</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25208,19 +25210,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176243</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>164.5163353500256</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>200.5710240144377</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.6709200800483</v>
+        <v>26.43728131980222</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25631,19 +25633,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>12.17187710393762</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>305.4503673090197</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25679,16 +25681,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>152.0991456492721</v>
       </c>
       <c r="C43" t="n">
-        <v>13.50097262859884</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25865,10 +25867,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>292.0256660671211</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>119.8096072476721</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>94.61732129505862</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561408.0036516037</v>
+        <v>561408.0036516036</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>561408.0036516038</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>561408.0036516037</v>
+        <v>561408.0036516038</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>561408.0036516038</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>561408.0036516038</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>561408.0036516039</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>561408.0036516038</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>561408.0036516037</v>
+        <v>561408.0036516038</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>561408.0036516038</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561408.0036516039</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26319,10 @@
         <v>114155.4085116631</v>
       </c>
       <c r="D2" t="n">
-        <v>114155.4085116631</v>
+        <v>114155.408511663</v>
       </c>
       <c r="E2" t="n">
-        <v>114155.4085116631</v>
+        <v>114155.408511663</v>
       </c>
       <c r="F2" t="n">
         <v>114155.4085116631</v>
@@ -26350,7 +26352,7 @@
         <v>114155.4085116631</v>
       </c>
       <c r="O2" t="n">
-        <v>114155.4085116632</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="P2" t="n">
         <v>114155.4085116631</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136259.933904291</v>
+        <v>-136259.9339042909</v>
       </c>
       <c r="C6" t="n">
-        <v>38695.57598882313</v>
+        <v>38695.57598882311</v>
       </c>
       <c r="D6" t="n">
-        <v>38695.57598882312</v>
+        <v>38695.57598882308</v>
       </c>
       <c r="E6" t="n">
-        <v>72323.17598882316</v>
+        <v>72323.17598882309</v>
       </c>
       <c r="F6" t="n">
-        <v>72323.17598882318</v>
+        <v>72323.17598882312</v>
       </c>
       <c r="G6" t="n">
-        <v>72323.17598882312</v>
+        <v>72323.17598882313</v>
       </c>
       <c r="H6" t="n">
         <v>72323.17598882316</v>
       </c>
       <c r="I6" t="n">
-        <v>72323.17598882318</v>
+        <v>72323.17598882315</v>
       </c>
       <c r="J6" t="n">
-        <v>-64271.62481707184</v>
+        <v>-64271.62481707179</v>
       </c>
       <c r="K6" t="n">
-        <v>72323.17598882315</v>
+        <v>72323.17598882312</v>
       </c>
       <c r="L6" t="n">
-        <v>72323.17598882313</v>
+        <v>72323.17598882312</v>
       </c>
       <c r="M6" t="n">
-        <v>72323.17598882316</v>
+        <v>72323.17598882309</v>
       </c>
       <c r="N6" t="n">
-        <v>72323.17598882318</v>
+        <v>72323.17598882312</v>
       </c>
       <c r="O6" t="n">
-        <v>72323.17598882319</v>
+        <v>72323.17598882309</v>
       </c>
       <c r="P6" t="n">
         <v>72323.17598882315</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
         <v>522.0635703700256</v>
@@ -26814,22 +26816,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700253</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="M2" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O3" t="n">
-        <v>14.48459394538821</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>441.875604297781</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>500.9700927793178</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="L9" t="n">
-        <v>506.6900639491208</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35416,22 +35418,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P11" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>338.0047407346343</v>
+        <v>14.48459394538786</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="M14" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,7 +35664,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35890,22 +35892,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
+        <v>367.8628411009272</v>
+      </c>
+      <c r="M18" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
-        <v>445.0368534430334</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="P20" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N20" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36200,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>10.70163254908682</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,19 +36363,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>460.0037840019794</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="O24" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>203.2507825193992</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>522.0635703700256</v>
@@ -36689,10 +36691,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36832,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430331</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37148,22 +37150,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>474.8949538093263</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>471.1119924130248</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="O38" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>276.3515302285468</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,13 +37791,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>471.1119924130248</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P44" t="n">
-        <v>460.0037840019794</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N45" t="n">
-        <v>338.0047407346341</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278130.5562328064</v>
+        <v>272401.1604015796</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763805</v>
+        <v>11821355.91763804</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>95.85499072547003</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>372.2698922909595</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868341</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>42.43741174507633</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.6594333092506167</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>100.0791888769551</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>180.6077930059085</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1141,19 +1141,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>307.076502194043</v>
+        <v>179.0501159571499</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748616</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
         <v>195.3773027531635</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>43.7322706362913</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.09470047395124</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.116870328528683</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1451,7 +1451,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385435</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1517,7 +1517,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="13">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>329.7323901280499</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>62.08889096690156</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.07643038288631</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>386.8650699901663</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>51.11669285445218</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>183.3275768541984</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2061,16 +2061,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>375.3416314550221</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>129.232574668155</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>42.43741174507687</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>227.0672929610288</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2320,13 +2320,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>368.8713682795359</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>6.338580986754886</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>69.56032144960771</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.2398756097325</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>234.4038302799852</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>65.42520756919141</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>227.0672929610288</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>224.2419637676909</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>84.50532171668905</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>153.0251390105131</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.129193841209192</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>183.8493777982075</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>294.7228925766561</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>76.86045170390376</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>93.7139237100422</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>192.0241042587364</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>64.65974540903781</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3359,7 +3359,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588044</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
         <v>70.03974083464111</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>13.99263448916676</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3489,7 +3489,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>179.3516738417454</v>
+        <v>366.5558355656261</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159.3854280103017</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>388.2474135039324</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>19.8984304622902</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.72356368083187</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -3957,13 +3957,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>115.6215446134499</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>113.9976787127415</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>103.3490351016146</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672383</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>417.7952798628945</v>
+        <v>535.8485686398311</v>
       </c>
       <c r="C2" t="n">
-        <v>417.7952798628945</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D2" t="n">
-        <v>417.7952798628945</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E2" t="n">
-        <v>417.7952798628945</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F2" t="n">
-        <v>417.7952798628945</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636815</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>1209.69369432892</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
         <v>1209.69369432892</v>
@@ -4345,7 +4345,7 @@
         <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610683</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>1219.375350745852</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X2" t="n">
-        <v>818.7319529148044</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y2" t="n">
-        <v>417.7952798628945</v>
+        <v>946.0697483043206</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>158.3214934345128</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>158.3214934345128</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M3" t="n">
-        <v>158.3214934345128</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N3" t="n">
-        <v>675.164428100838</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767163</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433488</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.63115809937611</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4518,22 +4518,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>1014.480089736098</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>735.4104252449724</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>497.0665631046558</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.3308644934205</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.76508562960203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C5" t="n">
-        <v>41.76508562960203</v>
+        <v>2087.588187228334</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960203</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960203</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960203</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636815</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4600,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1987.1641917054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1637.32663704188</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1253.566336177049</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>852.9229383460014</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>451.9862652940915</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736455</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>508.1659581184963</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784821</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784821</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4679,7 +4679,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
         <v>1409.860069912671</v>
@@ -4691,7 +4691,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2088.254281480102</v>
+        <v>1037.212309210292</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.129690793372</v>
+        <v>627.0877185235616</v>
       </c>
       <c r="D8" t="n">
-        <v>1273.665760886433</v>
+        <v>222.6237886166222</v>
       </c>
       <c r="E8" t="n">
-        <v>859.3255454033292</v>
+        <v>222.6237886166222</v>
       </c>
       <c r="F8" t="n">
-        <v>438.2951333570168</v>
+        <v>222.6237886166222</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>537.7254774811263</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1054.568412147451</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4837,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>1447.433488874781</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>158.3214934345128</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>158.3214934345128</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>675.164428100838</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767163</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433488</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433488</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>549.0186571248826</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>310.6747949845659</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>85.93909637333064</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>856.3536062232714</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C11" t="n">
-        <v>446.2290155365415</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960203</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960203</v>
+        <v>452.6316225938696</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960203</v>
+        <v>452.6316225938696</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>43.90333848670173</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>43.90333848670173</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>41.76508562960203</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N11" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O11" t="n">
-        <v>1592.293889628578</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5080,13 +5080,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.49398061527</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1303.850582784223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>902.9139097323131</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
         <v>586.6008562650821</v>
@@ -5114,10 +5114,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
         <v>234.5779431922353</v>
@@ -5126,22 +5126,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>704.723947463468</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M12" t="n">
-        <v>704.723947463468</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N12" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O12" t="n">
-        <v>1221.566882129793</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5153,19 +5153,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U12" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1286.674210597144</v>
+        <v>1257.829491074854</v>
       </c>
       <c r="C14" t="n">
-        <v>953.6111902657808</v>
+        <v>1257.829491074854</v>
       </c>
       <c r="D14" t="n">
-        <v>549.1472603588413</v>
+        <v>853.3655611679142</v>
       </c>
       <c r="E14" t="n">
-        <v>549.1472603588413</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F14" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G14" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H14" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>692.8507596625946</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M14" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N14" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O14" t="n">
         <v>1209.69369432892</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X14" t="n">
-        <v>1687.610883649054</v>
+        <v>1668.050670739343</v>
       </c>
       <c r="Y14" t="n">
-        <v>1286.674210597144</v>
+        <v>1668.050670739343</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
         <v>234.5779431922353</v>
@@ -5369,13 +5369,13 @@
         <v>690.384199457534</v>
       </c>
       <c r="N15" t="n">
-        <v>1192.007362767163</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O15" t="n">
-        <v>1708.850297433488</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P15" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q15" t="n">
         <v>2058.694762117472</v>
@@ -5393,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>843.6595175967811</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>684.1648729196911</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>523.2540577880106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1299.499495805762</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>1299.499495805762</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>1299.499495805762</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>1299.499495805762</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>1299.499495805762</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.452596429109</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815613</v>
+        <v>1252.217559698918</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128883</v>
+        <v>1252.217559698918</v>
       </c>
       <c r="D17" t="n">
-        <v>1267.908511128883</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="E17" t="n">
-        <v>853.5682956457795</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F17" t="n">
-        <v>432.537883599467</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I17" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5551,16 +5551,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>2036.621258394797</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1652.860957529966</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1252.217559698918</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1252.217559698918</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
         <v>469.7036984844747</v>
@@ -5585,13 +5585,13 @@
         <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.5136770093618</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
         <v>234.5779431922353</v>
@@ -5600,22 +5600,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M18" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N18" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O18" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5633,7 +5633,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.8584580678856</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
         <v>41.76508562960205</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1385.984611690656</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T19" t="n">
-        <v>1146.435872667358</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U19" t="n">
-        <v>863.6377252134819</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V19" t="n">
-        <v>863.6377252134819</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W19" t="n">
-        <v>863.6377252134819</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X19" t="n">
-        <v>625.2938630731653</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y19" t="n">
-        <v>400.5581644619299</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>762.7981736886139</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C20" t="n">
         <v>352.673583001884</v>
@@ -5752,28 +5752,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N20" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O20" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5782,22 +5782,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V20" t="n">
-        <v>1957.716327269845</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W20" t="n">
-        <v>1573.956026405013</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X20" t="n">
-        <v>1573.956026405013</v>
+        <v>731.806544067563</v>
       </c>
       <c r="Y20" t="n">
-        <v>1173.019353353103</v>
+        <v>731.806544067563</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.5136770093618</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L21" t="n">
-        <v>558.6080202959273</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M21" t="n">
-        <v>1075.450954962253</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962253</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O21" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5867,7 +5867,7 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
         <v>1196.626901649</v>
@@ -5876,7 +5876,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>601.7214573290265</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1805.456134026226</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1531.570388965748</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>1252.500724474623</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>1014.156862334306</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y22" t="n">
-        <v>789.4211637230709</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1270.693821706375</v>
+        <v>414.362427326103</v>
       </c>
       <c r="C23" t="n">
-        <v>860.5692310196448</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D23" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E23" t="n">
         <v>41.76508562960205</v>
@@ -5989,25 +5989,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M23" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N23" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O23" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
         <v>2047.697635790537</v>
@@ -6019,22 +6019,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U23" t="n">
-        <v>2081.851674422774</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V23" t="n">
-        <v>2081.851674422774</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W23" t="n">
-        <v>2081.851674422774</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X23" t="n">
-        <v>2081.851674422774</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="Y23" t="n">
-        <v>1680.915001370864</v>
+        <v>824.5836069905924</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L24" t="n">
-        <v>558.6080202959273</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.450954962253</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.3847151048558</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>749.2913426665723</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>589.7966979894823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>428.8858828578017</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
         <v>41.76508562960205</v>
@@ -6177,22 +6177,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.820120110135</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>1108.0844214989</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1286.674210597145</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="C26" t="n">
-        <v>876.5496199104149</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="D26" t="n">
-        <v>876.5496199104149</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="E26" t="n">
-        <v>462.2094044273116</v>
+        <v>1194.647090203368</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960205</v>
+        <v>773.6166781570555</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>364.8883940498877</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I26" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M26" t="n">
-        <v>692.8507596625949</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N26" t="n">
-        <v>692.8507596625949</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O26" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P26" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6256,22 +6256,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X26" t="n">
-        <v>1687.610883649055</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y26" t="n">
-        <v>1286.674210597145</v>
+        <v>1608.987305686471</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
         <v>469.7036984844747</v>
@@ -6296,37 +6296,37 @@
         <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.5136770093618</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N27" t="n">
-        <v>1075.450954962253</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O27" t="n">
-        <v>1592.293889628578</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6344,7 +6344,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
         <v>41.76508562960205</v>
@@ -6408,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>224.1971997769844</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1269.297515126813</v>
+        <v>689.3025317846932</v>
       </c>
       <c r="C29" t="n">
-        <v>1269.297515126813</v>
+        <v>689.3025317846932</v>
       </c>
       <c r="D29" t="n">
-        <v>864.8335852198732</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E29" t="n">
-        <v>450.4933697367699</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>558.6080202959272</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.568412147451</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M29" t="n">
-        <v>1054.568412147451</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N29" t="n">
-        <v>1054.568412147451</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O29" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2002.895370655163</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2002.895370655163</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>1653.057815991644</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W29" t="n">
-        <v>1269.297515126813</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X29" t="n">
-        <v>1269.297515126813</v>
+        <v>689.3025317846932</v>
       </c>
       <c r="Y29" t="n">
-        <v>1269.297515126813</v>
+        <v>689.3025317846932</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
         <v>234.5779431922353</v>
@@ -6548,19 +6548,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="L30" t="n">
-        <v>751.4208778585604</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M30" t="n">
-        <v>751.4208778585604</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N30" t="n">
-        <v>751.4208778585604</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O30" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P30" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q30" t="n">
         <v>2058.694762117472</v>
@@ -6578,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>884.5196047829018</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>713.4262323446183</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M31" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P31" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S31" t="n">
-        <v>2088.254281480102</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T31" t="n">
-        <v>2088.254281480102</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U31" t="n">
-        <v>2088.254281480102</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V31" t="n">
-        <v>1814.368536419624</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W31" t="n">
-        <v>1535.298871928498</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X31" t="n">
-        <v>1296.955009788182</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y31" t="n">
-        <v>1072.219311176946</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1542.752026609713</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C32" t="n">
-        <v>1132.627435922983</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D32" t="n">
-        <v>728.1635060160438</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E32" t="n">
-        <v>313.8232905329405</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L32" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N32" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O32" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6730,22 +6730,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V32" t="n">
-        <v>1952.973206274203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W32" t="n">
-        <v>1952.973206274203</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X32" t="n">
-        <v>1952.973206274203</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y32" t="n">
-        <v>1952.973206274203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
@@ -6785,22 +6785,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M33" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N33" t="n">
-        <v>1738.409816796118</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O33" t="n">
-        <v>1738.409816796118</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P33" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>372.3531027449755</v>
+        <v>529.4209365128291</v>
       </c>
       <c r="C34" t="n">
-        <v>201.259730306692</v>
+        <v>529.4209365128291</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76508562960203</v>
+        <v>369.9262918357392</v>
       </c>
       <c r="E34" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F34" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6900,10 +6900,10 @@
         <v>862.4253276531883</v>
       </c>
       <c r="X34" t="n">
-        <v>784.7885077502552</v>
+        <v>624.0814655128718</v>
       </c>
       <c r="Y34" t="n">
-        <v>560.0528091390199</v>
+        <v>529.4209365128291</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>451.8896763163319</v>
+        <v>936.8366559336256</v>
       </c>
       <c r="C35" t="n">
-        <v>41.76508562960203</v>
+        <v>936.8366559336256</v>
       </c>
       <c r="D35" t="n">
-        <v>41.76508562960203</v>
+        <v>936.8366559336256</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960203</v>
+        <v>936.8366559336256</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960203</v>
+        <v>515.8062438873131</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>107.0779597801453</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M35" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N35" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O35" t="n">
-        <v>1846.479361096332</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6970,19 +6970,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V35" t="n">
-        <v>1831.193789739612</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W35" t="n">
-        <v>1447.433488874781</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X35" t="n">
-        <v>1046.790091043733</v>
+        <v>1337.773328985535</v>
       </c>
       <c r="Y35" t="n">
-        <v>645.8534179918232</v>
+        <v>936.8366559336256</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K36" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L36" t="n">
-        <v>1207.227134123859</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M36" t="n">
-        <v>1724.070068790184</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N36" t="n">
-        <v>2058.694762117472</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O36" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P36" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7049,19 +7049,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U36" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.76508562960203</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="C37" t="n">
-        <v>41.76508562960203</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="D37" t="n">
-        <v>41.76508562960203</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="E37" t="n">
-        <v>41.76508562960203</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="F37" t="n">
-        <v>41.76508562960203</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G37" t="n">
-        <v>41.76508562960203</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960203</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7122,25 +7122,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S37" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T37" t="n">
-        <v>1059.950756782464</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U37" t="n">
-        <v>777.1526093285881</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V37" t="n">
-        <v>503.2668642681101</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W37" t="n">
-        <v>224.1971997769844</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X37" t="n">
-        <v>41.76508562960203</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.76508562960203</v>
+        <v>172.2451057567575</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>942.7053689061983</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C38" t="n">
-        <v>532.5807782194684</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D38" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E38" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F38" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G38" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L38" t="n">
-        <v>1075.450954962252</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N38" t="n">
+        <v>1329.636426430007</v>
+      </c>
+      <c r="O38" t="n">
         <v>1530.854701124212</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2047.697635790537</v>
       </c>
       <c r="P38" t="n">
         <v>2047.697635790537</v>
@@ -7204,22 +7204,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
         <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1123.868675817052</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W38" t="n">
-        <v>942.7053689061983</v>
+        <v>753.6102560537939</v>
       </c>
       <c r="X38" t="n">
-        <v>942.7053689061983</v>
+        <v>753.6102560537939</v>
       </c>
       <c r="Y38" t="n">
-        <v>942.7053689061983</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K39" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L39" t="n">
-        <v>1207.227134123859</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M39" t="n">
-        <v>1724.070068790184</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="N39" t="n">
-        <v>2088.254281480102</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P39" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7362,22 +7362,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>1292.094317759326</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>1292.094317759326</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>1292.094317759326</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.033101815612</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.033101815612</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E41" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L41" t="n">
-        <v>812.7934917636815</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M41" t="n">
-        <v>812.7934917636815</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N41" t="n">
-        <v>812.7934917636815</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O41" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q41" t="n">
         <v>2047.697635790537</v>
@@ -7447,16 +7447,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480102</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>558.6080202959272</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.450954962252</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N42" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O42" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1531.843189264714</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="C43" t="n">
-        <v>1360.749816826431</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="D43" t="n">
-        <v>1201.255172149341</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E43" t="n">
-        <v>1040.34435701766</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F43" t="n">
-        <v>875.7132311282514</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G43" t="n">
-        <v>708.4628400537948</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M43" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P43" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1848.705542456804</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1565.907395002928</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>1565.907395002928</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1565.907395002928</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>1565.907395002928</v>
+        <v>379.0722472181898</v>
       </c>
       <c r="Y43" t="n">
-        <v>1565.907395002928</v>
+        <v>379.0722472181898</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>561.3781859534521</v>
+        <v>1351.433653013366</v>
       </c>
       <c r="C44" t="n">
-        <v>446.2290155365415</v>
+        <v>941.3090623266362</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960203</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960203</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960203</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>41.76508562960203</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M44" t="n">
-        <v>558.6080202959272</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N44" t="n">
-        <v>1075.450954962252</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O44" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P44" t="n">
         <v>2047.697635790537</v>
@@ -7675,25 +7675,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>1695.912714533713</v>
+        <v>1761.654832677855</v>
       </c>
       <c r="V44" t="n">
-        <v>1346.075159870193</v>
+        <v>1761.654832677855</v>
       </c>
       <c r="W44" t="n">
-        <v>962.314859005362</v>
+        <v>1761.654832677855</v>
       </c>
       <c r="X44" t="n">
-        <v>962.314859005362</v>
+        <v>1761.654832677855</v>
       </c>
       <c r="Y44" t="n">
-        <v>561.3781859534521</v>
+        <v>1761.654832677855</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K45" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L45" t="n">
-        <v>1014.414276561226</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M45" t="n">
-        <v>1531.257211227551</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N45" t="n">
-        <v>2048.100145893876</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O45" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7763,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7830,28 +7830,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T46" t="n">
-        <v>1331.615243227154</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U46" t="n">
-        <v>1048.817095773278</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V46" t="n">
-        <v>774.9313507128002</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W46" t="n">
-        <v>495.8616862216745</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X46" t="n">
-        <v>257.5178240813579</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>496.3946935832875</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>173.5595280421011</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>362.9022490996783</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544003</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>527.2265162238735</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728292</v>
+        <v>529.1545888121299</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
@@ -8461,22 +8461,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>594.2603172363629</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>173.5595280421011</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>73.48479305079361</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>594.6194560602016</v>
+        <v>296.9001458002834</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,25 +8774,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>70.59911775623691</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875383</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>231.0841246958421</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9017,13 +9017,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>559.8834573428703</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>423.9773649117762</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>611.1999600432426</v>
@@ -9409,22 +9409,22 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N20" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>498.2302468367829</v>
       </c>
       <c r="O21" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M23" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808746</v>
+        <v>501.1513772538819</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>554.1634861730672</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N26" t="n">
         <v>92.91229075661933</v>
@@ -9892,10 +9892,10 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P27" t="n">
-        <v>171.9933802602897</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432425</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L29" t="n">
-        <v>596.4554908421622</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
         <v>93.29022445704545</v>
@@ -10126,16 +10126,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,19 +10196,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>498.2302468367834</v>
       </c>
       <c r="O30" t="n">
-        <v>502.7883324430331</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>552.9160747585985</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10433,25 +10433,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M33" t="n">
-        <v>72.04887768380517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958086</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P35" t="n">
-        <v>296.9001458002832</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
-        <v>391.1981341283837</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>205.3433246237788</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>552.9160747585985</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>205.1561293621958</v>
       </c>
       <c r="N39" t="n">
-        <v>421.0562344946766</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>494.0990711462258</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>554.1634861730674</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270709</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>553.6531472828633</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11378,28 +11378,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>579.6278541084429</v>
+        <v>175.2980289959033</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O45" t="n">
-        <v>98.31121191537929</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>310.1683540543925</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22561,13 +22561,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>32.37110897513656</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,19 +22600,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>126.9450269688243</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -22758,7 +22758,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>405.3639114706119</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>154.4106979461299</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>41.88054861921441</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>97.56449907205314</v>
+        <v>225.5908853089462</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,13 +23077,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>142.0904386938126</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,22 +23229,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.0242673938933</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>83.37137472756889</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>76.29095465181268</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23560,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>334.5480728858354</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.4119112422366</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>295.2224862624319</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.200273584690478</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>30.77733641282242</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -24022,22 +24022,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>217.1066044487291</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>126.9450269688238</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24180,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>37.15197650032661</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -24259,22 +24259,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>248.1513058363301</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>93.42449318090694</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24417,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5802323161168488</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>73.39558211857403</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24508,10 +24508,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24618,10 +24618,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>82.68617307340649</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>8.89313055788466</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,16 +24685,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>176.1773268401791</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>135.4790974959207</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>4.874559219805946</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>277.8409721381279</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>232.9707301276418</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -24937,7 +24937,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>102.2044137447347</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25140,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>159.0999718150097</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>128.7744179150807</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>214.0948636091082</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25165,13 +25165,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>243.1396669895214</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25210,13 +25210,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>148.9921801413479</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25332,7 +25332,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25393,10 +25393,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25408,10 +25408,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>200.5710240144377</v>
+        <v>13.36686229055698</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.43728131980222</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>12.17187710393762</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25687,16 +25687,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>326.4407486545939</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.0991456492721</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>120.3388789054636</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>292.0256660671211</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>151.1408517214704</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884632</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561408.0036516036</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>561408.0036516037</v>
+        <v>561408.0036516038</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>561408.0036516038</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561408.0036516038</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>561408.0036516038</v>
+        <v>561408.0036516037</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>561408.0036516037</v>
+        <v>561408.0036516038</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561408.0036516037</v>
+        <v>561408.0036516038</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>114155.4085116631</v>
       </c>
       <c r="D2" t="n">
-        <v>114155.408511663</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="E2" t="n">
-        <v>114155.408511663</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="F2" t="n">
         <v>114155.4085116631</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136259.9339042909</v>
+        <v>-136937.462763685</v>
       </c>
       <c r="C6" t="n">
-        <v>38695.57598882311</v>
+        <v>38018.04712942911</v>
       </c>
       <c r="D6" t="n">
-        <v>38695.57598882308</v>
+        <v>38018.04712942909</v>
       </c>
       <c r="E6" t="n">
-        <v>72323.17598882309</v>
+        <v>71645.64712942907</v>
       </c>
       <c r="F6" t="n">
-        <v>72323.17598882312</v>
+        <v>71645.64712942907</v>
       </c>
       <c r="G6" t="n">
-        <v>72323.17598882313</v>
+        <v>71645.6471294291</v>
       </c>
       <c r="H6" t="n">
-        <v>72323.17598882316</v>
+        <v>71645.64712942907</v>
       </c>
       <c r="I6" t="n">
-        <v>72323.17598882315</v>
+        <v>71645.6471294291</v>
       </c>
       <c r="J6" t="n">
-        <v>-64271.62481707179</v>
+        <v>-64949.1536764659</v>
       </c>
       <c r="K6" t="n">
-        <v>72323.17598882312</v>
+        <v>71645.64712942908</v>
       </c>
       <c r="L6" t="n">
-        <v>72323.17598882312</v>
+        <v>71645.64712942907</v>
       </c>
       <c r="M6" t="n">
-        <v>72323.17598882309</v>
+        <v>71645.64712942905</v>
       </c>
       <c r="N6" t="n">
-        <v>72323.17598882312</v>
+        <v>71645.64712942908</v>
       </c>
       <c r="O6" t="n">
-        <v>72323.17598882309</v>
+        <v>71645.64712942907</v>
       </c>
       <c r="P6" t="n">
-        <v>72323.17598882315</v>
+        <v>71645.64712942907</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
         <v>522.0635703700256</v>
@@ -26816,22 +26816,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700253</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>400.9092955204427</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>117.7337452574857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>441.875604297781</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>471.1119924130245</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700254</v>
+        <v>474.8949538093261</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7337452574857</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
-        <v>500.9700927793174</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>14.48459394538786</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>135.5987266329973</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>506.6900639491204</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M17" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N17" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O17" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>367.8628411009272</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N18" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>522.0635703700256</v>
@@ -36129,22 +36129,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>445.0368534430329</v>
       </c>
       <c r="O21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430329</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36612,10 +36612,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P27" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L29" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="O30" t="n">
-        <v>445.0368534430331</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37153,25 +37153,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M33" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P35" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N36" t="n">
-        <v>338.0047407346337</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>147.5918456237783</v>
       </c>
       <c r="N39" t="n">
-        <v>367.8628411009266</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>400.9092955204427</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700254</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O45" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
